--- a/data/pca/factorExposure/factorExposure_2010-05-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-10.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01639146785491862</v>
+        <v>-0.01717989728998988</v>
       </c>
       <c r="C2">
-        <v>0.006216033712917925</v>
+        <v>0.001153340786354714</v>
       </c>
       <c r="D2">
-        <v>-0.02006538844973116</v>
+        <v>-0.008723000750637009</v>
       </c>
       <c r="E2">
-        <v>-0.01843456985392218</v>
+        <v>0.0009189266376528255</v>
       </c>
       <c r="F2">
-        <v>-0.01264824557580695</v>
+        <v>0.01050435797334791</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1188372748704043</v>
+        <v>-0.09393024493585825</v>
       </c>
       <c r="C4">
-        <v>-0.09057544454101846</v>
+        <v>0.01730435857400248</v>
       </c>
       <c r="D4">
-        <v>0.02100503585951627</v>
+        <v>-0.0831684618228597</v>
       </c>
       <c r="E4">
-        <v>-0.01879660010167689</v>
+        <v>-0.0297647523344346</v>
       </c>
       <c r="F4">
-        <v>-0.03034146033616639</v>
+        <v>-0.03367190318130703</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1303199097335121</v>
+        <v>-0.1530713303537544</v>
       </c>
       <c r="C6">
-        <v>-0.05617242723648447</v>
+        <v>0.02485144654193749</v>
       </c>
       <c r="D6">
-        <v>-0.004349103167524376</v>
+        <v>0.0236696977534508</v>
       </c>
       <c r="E6">
-        <v>0.03973974105747391</v>
+        <v>-0.008894957896003641</v>
       </c>
       <c r="F6">
-        <v>0.007748396162859841</v>
+        <v>-0.03991531759133097</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07512157386301269</v>
+        <v>-0.06087649336338651</v>
       </c>
       <c r="C7">
-        <v>-0.07449066045791478</v>
+        <v>-0.0001187482512539776</v>
       </c>
       <c r="D7">
-        <v>-0.004529554804569923</v>
+        <v>-0.05147251703755157</v>
       </c>
       <c r="E7">
-        <v>-0.03048016378421947</v>
+        <v>-0.01581800484229898</v>
       </c>
       <c r="F7">
-        <v>-0.0101308085662754</v>
+        <v>-0.05393606646937703</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04591710124226007</v>
+        <v>-0.05882564428860084</v>
       </c>
       <c r="C8">
-        <v>-0.03598142523627744</v>
+        <v>-0.01271967083616138</v>
       </c>
       <c r="D8">
-        <v>-0.004411104792742598</v>
+        <v>-0.03010668518376261</v>
       </c>
       <c r="E8">
-        <v>0.02445123264254652</v>
+        <v>-0.01398748223129783</v>
       </c>
       <c r="F8">
-        <v>-0.007609490576283145</v>
+        <v>0.0278511956335717</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08419327063033795</v>
+        <v>-0.07184987197590685</v>
       </c>
       <c r="C9">
-        <v>-0.06980770789646658</v>
+        <v>0.01346902434546832</v>
       </c>
       <c r="D9">
-        <v>0.02910038500502107</v>
+        <v>-0.08305315581833571</v>
       </c>
       <c r="E9">
-        <v>-0.01165010347975254</v>
+        <v>-0.02571809407766364</v>
       </c>
       <c r="F9">
-        <v>-0.01156410505717593</v>
+        <v>-0.05494498104022192</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1305521273943645</v>
+        <v>-0.09308850726981294</v>
       </c>
       <c r="C10">
-        <v>0.1498553679455369</v>
+        <v>0.01614480628431988</v>
       </c>
       <c r="D10">
-        <v>-0.01695839586846274</v>
+        <v>0.1702099483076066</v>
       </c>
       <c r="E10">
-        <v>-0.0352456999746606</v>
+        <v>0.03681616155355761</v>
       </c>
       <c r="F10">
-        <v>-0.02425899848728581</v>
+        <v>0.05164871440018112</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.07510028907440808</v>
+        <v>-0.08822924903791943</v>
       </c>
       <c r="C11">
-        <v>-0.07053912982002665</v>
+        <v>0.01278936135583921</v>
       </c>
       <c r="D11">
-        <v>0.03395584584190965</v>
+        <v>-0.1137977675368827</v>
       </c>
       <c r="E11">
-        <v>0.005804738004859922</v>
+        <v>-0.04755630819355931</v>
       </c>
       <c r="F11">
-        <v>-0.01661556379345186</v>
+        <v>-0.02306567790505036</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06788886779256986</v>
+        <v>-0.09360032049637421</v>
       </c>
       <c r="C12">
-        <v>-0.07138696194348457</v>
+        <v>0.01072138669668457</v>
       </c>
       <c r="D12">
-        <v>0.0527852917079696</v>
+        <v>-0.1203543363565479</v>
       </c>
       <c r="E12">
-        <v>-0.01807532708931923</v>
+        <v>-0.04688400181978893</v>
       </c>
       <c r="F12">
-        <v>0.01695251753347035</v>
+        <v>-0.0232802813148486</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.0346086030211599</v>
+        <v>-0.04380379583251193</v>
       </c>
       <c r="C13">
-        <v>-0.03743909167308457</v>
+        <v>0.004342300608330601</v>
       </c>
       <c r="D13">
-        <v>-0.009304060688087481</v>
+        <v>-0.04678675453521514</v>
       </c>
       <c r="E13">
-        <v>-0.02198742547256265</v>
+        <v>0.0116822258387136</v>
       </c>
       <c r="F13">
-        <v>-0.01078538765090437</v>
+        <v>-0.01340029894390316</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03246131063341311</v>
+        <v>-0.0222586234422679</v>
       </c>
       <c r="C14">
-        <v>-0.03172789806360173</v>
+        <v>0.01472637009480345</v>
       </c>
       <c r="D14">
-        <v>0.02072990415517414</v>
+        <v>-0.03312521390936187</v>
       </c>
       <c r="E14">
-        <v>-0.003059166099489095</v>
+        <v>-0.01987445080765371</v>
       </c>
       <c r="F14">
-        <v>0.005192655459606595</v>
+        <v>-0.01962118757405066</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01816897023703383</v>
+        <v>-0.03217480595048543</v>
       </c>
       <c r="C15">
-        <v>-0.02742910239353847</v>
+        <v>0.005682151817027051</v>
       </c>
       <c r="D15">
-        <v>-0.06154468333683456</v>
+        <v>-0.04534915942514285</v>
       </c>
       <c r="E15">
-        <v>-0.0155400396529354</v>
+        <v>-0.009429784662409927</v>
       </c>
       <c r="F15">
-        <v>-0.01993831496784752</v>
+        <v>-0.03130394738794078</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08023816842562265</v>
+        <v>-0.07492622268362382</v>
       </c>
       <c r="C16">
-        <v>-0.07261813597642383</v>
+        <v>0.00435962094462154</v>
       </c>
       <c r="D16">
-        <v>0.04297339357110835</v>
+        <v>-0.1157930346237364</v>
       </c>
       <c r="E16">
-        <v>0.02163814452515648</v>
+        <v>-0.06235552293725786</v>
       </c>
       <c r="F16">
-        <v>-0.003469106971606327</v>
+        <v>-0.03211966587454297</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02159206636351787</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.00371902340173854</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.0210508509980653</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01077646320821575</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02465245746293791</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04248462860693265</v>
+        <v>-0.06137806393264475</v>
       </c>
       <c r="C20">
-        <v>-0.03775642114470386</v>
+        <v>0.00209257783135747</v>
       </c>
       <c r="D20">
-        <v>-0.02441064882455016</v>
+        <v>-0.073163386110428</v>
       </c>
       <c r="E20">
-        <v>-0.0265073520100987</v>
+        <v>-0.05495859439545681</v>
       </c>
       <c r="F20">
-        <v>0.01380955817939788</v>
+        <v>-0.02813269966268559</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02668210712969491</v>
+        <v>-0.0393774036449418</v>
       </c>
       <c r="C21">
-        <v>-0.01303524010858801</v>
+        <v>0.007927475630796104</v>
       </c>
       <c r="D21">
-        <v>0.01216454288171848</v>
+        <v>-0.03503675634242409</v>
       </c>
       <c r="E21">
-        <v>0.003262567517234907</v>
+        <v>0.008633348585710236</v>
       </c>
       <c r="F21">
-        <v>-0.01135994421346467</v>
+        <v>0.01987946102060116</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05709502754098907</v>
+        <v>-0.04219840658685748</v>
       </c>
       <c r="C22">
-        <v>-0.01641204662402228</v>
+        <v>0.0001255552330427453</v>
       </c>
       <c r="D22">
-        <v>-0.6371069447893001</v>
+        <v>-0.001035429009593253</v>
       </c>
       <c r="E22">
-        <v>-0.1093369086192416</v>
+        <v>-0.02855403677761489</v>
       </c>
       <c r="F22">
-        <v>0.15204866822258</v>
+        <v>0.01217465979126843</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05775792128255611</v>
+        <v>-0.04225773222452996</v>
       </c>
       <c r="C23">
-        <v>-0.01781076546054427</v>
+        <v>0.0001484569844069642</v>
       </c>
       <c r="D23">
-        <v>-0.6393697516969069</v>
+        <v>-0.00116577182685474</v>
       </c>
       <c r="E23">
-        <v>-0.1087128714567644</v>
+        <v>-0.02890107155147225</v>
       </c>
       <c r="F23">
-        <v>0.151699267686009</v>
+        <v>0.01167663001790852</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08184606323329628</v>
+        <v>-0.08115247162640422</v>
       </c>
       <c r="C24">
-        <v>-0.07169159480757273</v>
+        <v>0.004664282806660796</v>
       </c>
       <c r="D24">
-        <v>0.03784514808142929</v>
+        <v>-0.1167602425163868</v>
       </c>
       <c r="E24">
-        <v>0.001905907632351483</v>
+        <v>-0.05002362318486452</v>
       </c>
       <c r="F24">
-        <v>-0.0005285442405375128</v>
+        <v>-0.02485085251427053</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08100447622201812</v>
+        <v>-0.08564948737603713</v>
       </c>
       <c r="C25">
-        <v>-0.06814352053372226</v>
+        <v>0.006630167928551251</v>
       </c>
       <c r="D25">
-        <v>0.05195007786978744</v>
+        <v>-0.1049752726000967</v>
       </c>
       <c r="E25">
-        <v>-0.01038779640377166</v>
+        <v>-0.0331546145737673</v>
       </c>
       <c r="F25">
-        <v>-0.0009911147679768819</v>
+        <v>-0.03277526964950839</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03814600264069563</v>
+        <v>-0.05582030996325602</v>
       </c>
       <c r="C26">
-        <v>0.007144256666049512</v>
+        <v>0.01544573756628842</v>
       </c>
       <c r="D26">
-        <v>-0.01705130180427073</v>
+        <v>-0.03438025677390499</v>
       </c>
       <c r="E26">
-        <v>0.0256067553905284</v>
+        <v>-0.02686187535651798</v>
       </c>
       <c r="F26">
-        <v>0.06020677231371957</v>
+        <v>0.008832341275399216</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1518792530422004</v>
+        <v>-0.1402414443253777</v>
       </c>
       <c r="C28">
-        <v>0.2787609553575455</v>
+        <v>0.01389950768466217</v>
       </c>
       <c r="D28">
-        <v>-0.003397459551036579</v>
+        <v>0.2688723793163246</v>
       </c>
       <c r="E28">
-        <v>0.07948706237417606</v>
+        <v>0.06744993200254389</v>
       </c>
       <c r="F28">
-        <v>0.009718810243834827</v>
+        <v>-0.03170379322499094</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03237167629063634</v>
+        <v>-0.02723276960808794</v>
       </c>
       <c r="C29">
-        <v>-0.02700539600787413</v>
+        <v>0.008954218970863318</v>
       </c>
       <c r="D29">
-        <v>0.02546238003441497</v>
+        <v>-0.03166392241290805</v>
       </c>
       <c r="E29">
-        <v>-0.03116723726752808</v>
+        <v>-0.01254626291715954</v>
       </c>
       <c r="F29">
-        <v>0.02013895797878052</v>
+        <v>0.01113095123164319</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09520886074167523</v>
+        <v>-0.06411265400289257</v>
       </c>
       <c r="C30">
-        <v>-0.07151279602151668</v>
+        <v>0.0061107371144197</v>
       </c>
       <c r="D30">
-        <v>0.04198963991840433</v>
+        <v>-0.08013849927086372</v>
       </c>
       <c r="E30">
-        <v>0.08309369185856405</v>
+        <v>-0.02323888892361913</v>
       </c>
       <c r="F30">
-        <v>0.1842094248910361</v>
+        <v>-0.1108948573805518</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03301944372706615</v>
+        <v>-0.0485953305440364</v>
       </c>
       <c r="C31">
-        <v>-0.05236313675776807</v>
+        <v>0.01514228358510617</v>
       </c>
       <c r="D31">
-        <v>0.004189519118576579</v>
+        <v>-0.0287228014408098</v>
       </c>
       <c r="E31">
-        <v>-0.02348078103318775</v>
+        <v>-0.02734629478014418</v>
       </c>
       <c r="F31">
-        <v>-0.006561947856702881</v>
+        <v>0.00194179114869941</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05541123914927058</v>
+        <v>-0.04861766038021337</v>
       </c>
       <c r="C32">
-        <v>-0.03426236109905648</v>
+        <v>0.0006048996440189897</v>
       </c>
       <c r="D32">
-        <v>0.04756917748145735</v>
+        <v>-0.03064588925380851</v>
       </c>
       <c r="E32">
-        <v>0.05953333319357025</v>
+        <v>-0.02982412224473836</v>
       </c>
       <c r="F32">
-        <v>-0.02326926419384201</v>
+        <v>-0.0019694419577709</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08754406739193808</v>
+        <v>-0.09043354079809891</v>
       </c>
       <c r="C33">
-        <v>-0.06220888095648058</v>
+        <v>0.009814475419207411</v>
       </c>
       <c r="D33">
-        <v>0.03507163489450871</v>
+        <v>-0.09252650518553404</v>
       </c>
       <c r="E33">
-        <v>0.0008266159140260684</v>
+        <v>-0.04634725253960841</v>
       </c>
       <c r="F33">
-        <v>0.00704991679551898</v>
+        <v>-0.03988084987163278</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06745392351641813</v>
+        <v>-0.06893868410320451</v>
       </c>
       <c r="C34">
-        <v>-0.05460405352620114</v>
+        <v>0.01277235358493452</v>
       </c>
       <c r="D34">
-        <v>0.04377526247578847</v>
+        <v>-0.09761352759005942</v>
       </c>
       <c r="E34">
-        <v>0.004972093395615404</v>
+        <v>-0.03500230213327499</v>
       </c>
       <c r="F34">
-        <v>-0.00543588301704608</v>
+        <v>-0.04587035442054711</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.00955859004237321</v>
+        <v>-0.02420153491084581</v>
       </c>
       <c r="C35">
-        <v>-0.01407157440345281</v>
+        <v>0.002561471246423446</v>
       </c>
       <c r="D35">
-        <v>0.003543151560813193</v>
+        <v>-0.0114322904021268</v>
       </c>
       <c r="E35">
-        <v>-0.01155662564764002</v>
+        <v>-0.01173884601998652</v>
       </c>
       <c r="F35">
-        <v>0.007709092027386252</v>
+        <v>-0.01048825734969678</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02149190503527175</v>
+        <v>-0.02443928782983858</v>
       </c>
       <c r="C36">
-        <v>-0.01647483838515132</v>
+        <v>0.00769152234784141</v>
       </c>
       <c r="D36">
-        <v>-0.01003921030677291</v>
+        <v>-0.03731186142900061</v>
       </c>
       <c r="E36">
-        <v>0.007670815611754188</v>
+        <v>-0.01659173348391171</v>
       </c>
       <c r="F36">
-        <v>0.01714719167652259</v>
+        <v>-0.0100066375188881</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0126598826962021</v>
+        <v>-0.002011814428523233</v>
       </c>
       <c r="C38">
-        <v>-0.02932718402933465</v>
+        <v>0.0003517247764380828</v>
       </c>
       <c r="D38">
-        <v>-0.02052890872726322</v>
+        <v>-0.002477534257275343</v>
       </c>
       <c r="E38">
-        <v>-0.03950149396191544</v>
+        <v>-0.002672638152846153</v>
       </c>
       <c r="F38">
-        <v>0.06655869465879531</v>
+        <v>0.0009637378263764612</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1087043940188459</v>
+        <v>-0.1100320702348394</v>
       </c>
       <c r="C39">
-        <v>-0.09508213923045275</v>
+        <v>0.018362896611878</v>
       </c>
       <c r="D39">
-        <v>0.1447063294843798</v>
+        <v>-0.1500998891146104</v>
       </c>
       <c r="E39">
-        <v>0.02445513623766256</v>
+        <v>-0.05873624851081938</v>
       </c>
       <c r="F39">
-        <v>0.09404985498480496</v>
+        <v>-0.03409867986956452</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02343397626187361</v>
+        <v>-0.0374375668858211</v>
       </c>
       <c r="C40">
-        <v>-0.06436374406794387</v>
+        <v>0.00767458699116869</v>
       </c>
       <c r="D40">
-        <v>-0.01978378747594188</v>
+        <v>-0.03094343704891773</v>
       </c>
       <c r="E40">
-        <v>-0.05878737667424069</v>
+        <v>-0.004469830456981056</v>
       </c>
       <c r="F40">
-        <v>-0.01055024763266021</v>
+        <v>0.01817083696666906</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03080087385564348</v>
+        <v>-0.02643428649015936</v>
       </c>
       <c r="C41">
-        <v>-0.02360606679203197</v>
+        <v>0.006966187014421151</v>
       </c>
       <c r="D41">
-        <v>0.02373284893332485</v>
+        <v>-0.01088276180535774</v>
       </c>
       <c r="E41">
-        <v>-0.01744514957923157</v>
+        <v>-0.01234656535948577</v>
       </c>
       <c r="F41">
-        <v>0.01490224062686006</v>
+        <v>0.01018230289472707</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04215876741638193</v>
+        <v>-0.04184173439335807</v>
       </c>
       <c r="C43">
-        <v>-0.02993865500821643</v>
+        <v>0.007044022034098153</v>
       </c>
       <c r="D43">
-        <v>-0.006844223509430065</v>
+        <v>-0.02099244640229524</v>
       </c>
       <c r="E43">
-        <v>-0.01069939278199346</v>
+        <v>-0.02589448832741076</v>
       </c>
       <c r="F43">
-        <v>0.04348156948051319</v>
+        <v>0.01123992765415457</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1217372351444404</v>
+        <v>-0.07330800472562506</v>
       </c>
       <c r="C44">
-        <v>-0.1330189502579587</v>
+        <v>0.02269888025337668</v>
       </c>
       <c r="D44">
-        <v>-0.07886420495241091</v>
+        <v>-0.09951009111059067</v>
       </c>
       <c r="E44">
-        <v>-0.06103956614619253</v>
+        <v>-0.06811631541421005</v>
       </c>
       <c r="F44">
-        <v>-0.009077810849203501</v>
+        <v>-0.1696341975357853</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.03341008336386114</v>
+        <v>-0.02247960426510006</v>
       </c>
       <c r="C46">
-        <v>-0.01515225278093597</v>
+        <v>0.004371764009176469</v>
       </c>
       <c r="D46">
-        <v>-0.02569134312826822</v>
+        <v>-0.01063188993386679</v>
       </c>
       <c r="E46">
-        <v>-0.03754642758440043</v>
+        <v>-0.02279758262540362</v>
       </c>
       <c r="F46">
-        <v>0.02896995072654317</v>
+        <v>-4.20196954011751e-05</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.039165525152984</v>
+        <v>-0.0521385427996684</v>
       </c>
       <c r="C47">
-        <v>-0.03020314551576096</v>
+        <v>0.003420964679661457</v>
       </c>
       <c r="D47">
-        <v>0.004118793284412924</v>
+        <v>-0.01225088568185164</v>
       </c>
       <c r="E47">
-        <v>-0.01472815763266103</v>
+        <v>-0.02158921084428385</v>
       </c>
       <c r="F47">
-        <v>0.005189861138591244</v>
+        <v>0.04346337064441075</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04064401580284973</v>
+        <v>-0.04747180571895639</v>
       </c>
       <c r="C48">
-        <v>-0.01488312716909101</v>
+        <v>0.003343668161103436</v>
       </c>
       <c r="D48">
-        <v>0.01552200258240801</v>
+        <v>-0.04706547997650878</v>
       </c>
       <c r="E48">
-        <v>-0.01494888452210047</v>
+        <v>0.004994234750581841</v>
       </c>
       <c r="F48">
-        <v>-0.01648178961524714</v>
+        <v>-0.01246754692645008</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2227419818875371</v>
+        <v>-0.2029427411076148</v>
       </c>
       <c r="C49">
-        <v>0.0144725478337106</v>
+        <v>0.01712301503955206</v>
       </c>
       <c r="D49">
-        <v>0.03932064010971837</v>
+        <v>0.01062484937903312</v>
       </c>
       <c r="E49">
-        <v>-0.08511759540286083</v>
+        <v>-0.0364070113175095</v>
       </c>
       <c r="F49">
-        <v>-0.02637016575980763</v>
+        <v>-0.03043904021224966</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03945753982654385</v>
+        <v>-0.0484516939770527</v>
       </c>
       <c r="C50">
-        <v>-0.0297724961970598</v>
+        <v>0.01129892225348147</v>
       </c>
       <c r="D50">
-        <v>0.01804285594971427</v>
+        <v>-0.02629109777268689</v>
       </c>
       <c r="E50">
-        <v>-0.005758428752152319</v>
+        <v>-0.02868759031456816</v>
       </c>
       <c r="F50">
-        <v>0.03539440002364259</v>
+        <v>-0.009978504331851734</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.02057594350293397</v>
+        <v>-0.002938845847742799</v>
       </c>
       <c r="C51">
-        <v>0.012755713849236</v>
+        <v>0.0007379573255916465</v>
       </c>
       <c r="D51">
-        <v>-0.0004157903998619435</v>
+        <v>0.002243019788921525</v>
       </c>
       <c r="E51">
-        <v>-0.01472486824017399</v>
+        <v>-0.0004494154540738926</v>
       </c>
       <c r="F51">
-        <v>-0.02600292888629267</v>
+        <v>-0.005520564061883659</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.08041539497148403</v>
+        <v>-0.1445162906672005</v>
       </c>
       <c r="C52">
-        <v>-0.0672043837793138</v>
+        <v>0.01347404532357286</v>
       </c>
       <c r="D52">
-        <v>0.01378014725659682</v>
+        <v>-0.0501555848144088</v>
       </c>
       <c r="E52">
-        <v>-0.01344579637311493</v>
+        <v>-0.02047901766220955</v>
       </c>
       <c r="F52">
-        <v>0.05599876928181194</v>
+        <v>-0.03727384963022528</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1580149511625985</v>
+        <v>-0.173664326037957</v>
       </c>
       <c r="C53">
-        <v>-0.04475530513494515</v>
+        <v>0.01618881786174988</v>
       </c>
       <c r="D53">
-        <v>-0.01627133652275875</v>
+        <v>-0.01239648193502121</v>
       </c>
       <c r="E53">
-        <v>-0.04425846458251648</v>
+        <v>-0.03505426434140523</v>
       </c>
       <c r="F53">
-        <v>0.0769209493246026</v>
+        <v>-0.06808696821431627</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05644019846214596</v>
+        <v>-0.02253226539815842</v>
       </c>
       <c r="C54">
-        <v>-0.06978841696087497</v>
+        <v>0.01264933275663013</v>
       </c>
       <c r="D54">
-        <v>0.002009341784725712</v>
+        <v>-0.03436003990818807</v>
       </c>
       <c r="E54">
-        <v>-0.01999995174897916</v>
+        <v>-0.01569624498268259</v>
       </c>
       <c r="F54">
-        <v>-0.02398383766650098</v>
+        <v>0.003908755436359204</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08640892218228619</v>
+        <v>-0.1146202333788629</v>
       </c>
       <c r="C55">
-        <v>-0.04991013422984525</v>
+        <v>0.01485167986974366</v>
       </c>
       <c r="D55">
-        <v>0.03420267750308977</v>
+        <v>-0.01215459474444732</v>
       </c>
       <c r="E55">
-        <v>-0.02416369981098494</v>
+        <v>-0.02984999594060272</v>
       </c>
       <c r="F55">
-        <v>0.02220272811485205</v>
+        <v>-0.05126047790398636</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1514796791106632</v>
+        <v>-0.1778079521658592</v>
       </c>
       <c r="C56">
-        <v>-0.07895013184879625</v>
+        <v>0.0137563509176041</v>
       </c>
       <c r="D56">
-        <v>0.0237148412919951</v>
+        <v>-0.007286507621259299</v>
       </c>
       <c r="E56">
-        <v>-0.08368586508215001</v>
+        <v>-0.03947149446947623</v>
       </c>
       <c r="F56">
-        <v>0.05242601929183231</v>
+        <v>-0.04189822945157762</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.05812205400577754</v>
+        <v>-0.04689405678789911</v>
       </c>
       <c r="C58">
-        <v>-0.04772628784519416</v>
+        <v>0.002844035393309861</v>
       </c>
       <c r="D58">
-        <v>-0.04263418544258366</v>
+        <v>-0.06453479016236935</v>
       </c>
       <c r="E58">
-        <v>-0.04141951181992053</v>
+        <v>-0.02280892510595961</v>
       </c>
       <c r="F58">
-        <v>0.02803376781986872</v>
+        <v>0.04956695787879353</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2112902458872241</v>
+        <v>-0.1709216882612134</v>
       </c>
       <c r="C59">
-        <v>0.21834822962814</v>
+        <v>0.01555724873079601</v>
       </c>
       <c r="D59">
-        <v>0.04393299553627721</v>
+        <v>0.2265384498104577</v>
       </c>
       <c r="E59">
-        <v>0.02085232103636315</v>
+        <v>0.04825189953557207</v>
       </c>
       <c r="F59">
-        <v>-0.09025139896199022</v>
+        <v>0.03217789164886434</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2247620497272159</v>
+        <v>-0.2379046723699814</v>
       </c>
       <c r="C60">
-        <v>-0.08016056490243668</v>
+        <v>-0.003824932955816521</v>
       </c>
       <c r="D60">
-        <v>0.07898870950142503</v>
+        <v>-0.04657181022134732</v>
       </c>
       <c r="E60">
-        <v>-0.1188097764496639</v>
+        <v>-0.006292126732841516</v>
       </c>
       <c r="F60">
-        <v>0.01331653061154688</v>
+        <v>0.0314970725675943</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1049903246849708</v>
+        <v>-0.08477471770622967</v>
       </c>
       <c r="C61">
-        <v>-0.0614718868627718</v>
+        <v>0.01438628981578881</v>
       </c>
       <c r="D61">
-        <v>0.08841945315671922</v>
+        <v>-0.1105002317745295</v>
       </c>
       <c r="E61">
-        <v>-0.01427029166502438</v>
+        <v>-0.04022189997960399</v>
       </c>
       <c r="F61">
-        <v>0.05022788753048193</v>
+        <v>-0.01893349996878081</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1482457524595792</v>
+        <v>-0.1705707093419183</v>
       </c>
       <c r="C62">
-        <v>-0.05696859806150507</v>
+        <v>0.01774003856312332</v>
       </c>
       <c r="D62">
-        <v>-0.005195075632093134</v>
+        <v>-0.01058347936665902</v>
       </c>
       <c r="E62">
-        <v>-0.06191281237700436</v>
+        <v>-0.03675928496635458</v>
       </c>
       <c r="F62">
-        <v>0.04730090770007062</v>
+        <v>-0.02265021950279151</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04593676933659607</v>
+        <v>-0.04322393653821714</v>
       </c>
       <c r="C63">
-        <v>-0.02890690714356239</v>
+        <v>0.003738063616317293</v>
       </c>
       <c r="D63">
-        <v>0.009355101960200493</v>
+        <v>-0.04963484241336594</v>
       </c>
       <c r="E63">
-        <v>0.02526780956176284</v>
+        <v>-0.02140107977333965</v>
       </c>
       <c r="F63">
-        <v>0.006143188500793285</v>
+        <v>-0.008068201036129137</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.08916814528402262</v>
+        <v>-0.1126423727014563</v>
       </c>
       <c r="C64">
-        <v>-0.04128276999705072</v>
+        <v>0.01223822908273613</v>
       </c>
       <c r="D64">
-        <v>0.01133849747698372</v>
+        <v>-0.04015782835884633</v>
       </c>
       <c r="E64">
-        <v>-0.06070378087796963</v>
+        <v>-0.01958160197454839</v>
       </c>
       <c r="F64">
-        <v>0.06355545454309726</v>
+        <v>-0.02306915606372638</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.123662524643427</v>
+        <v>-0.1445330495019699</v>
       </c>
       <c r="C65">
-        <v>-0.05058580968239956</v>
+        <v>0.03127151517803593</v>
       </c>
       <c r="D65">
-        <v>0.01685253370824186</v>
+        <v>0.04514128596605764</v>
       </c>
       <c r="E65">
-        <v>0.05137318427244839</v>
+        <v>-0.0003928906115552648</v>
       </c>
       <c r="F65">
-        <v>0.05060837376514623</v>
+        <v>-0.04045017162249575</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1267444743574292</v>
+        <v>-0.1315272061371273</v>
       </c>
       <c r="C66">
-        <v>-0.1174349649263214</v>
+        <v>0.01595040771809873</v>
       </c>
       <c r="D66">
-        <v>0.1321451422803922</v>
+        <v>-0.1373606088200377</v>
       </c>
       <c r="E66">
-        <v>-0.002850511611024486</v>
+        <v>-0.06500222560662855</v>
       </c>
       <c r="F66">
-        <v>0.1297254638106128</v>
+        <v>-0.03976813008775543</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.0546533307275445</v>
+        <v>-0.06305910488155266</v>
       </c>
       <c r="C67">
-        <v>-0.02987091707712342</v>
+        <v>0.003643457458657254</v>
       </c>
       <c r="D67">
-        <v>-0.0299847242708937</v>
+        <v>-0.05505563523361538</v>
       </c>
       <c r="E67">
-        <v>-0.01402348896526348</v>
+        <v>-0.02027846416715649</v>
       </c>
       <c r="F67">
-        <v>0.05363443885869983</v>
+        <v>0.03991131002722766</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1272145758654976</v>
+        <v>-0.1144455923668718</v>
       </c>
       <c r="C68">
-        <v>0.2482529016667108</v>
+        <v>0.02487532080742477</v>
       </c>
       <c r="D68">
-        <v>0.009103546514971441</v>
+        <v>0.2660426312108619</v>
       </c>
       <c r="E68">
-        <v>0.07802876162057816</v>
+        <v>0.08577401884183841</v>
       </c>
       <c r="F68">
-        <v>0.001047875631114665</v>
+        <v>-0.03748143729954335</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04003385985240802</v>
+        <v>-0.03956556644281538</v>
       </c>
       <c r="C69">
-        <v>0.006232503866425177</v>
+        <v>0.001141208197182123</v>
       </c>
       <c r="D69">
-        <v>-0.0001683896047634166</v>
+        <v>-0.009147609783939446</v>
       </c>
       <c r="E69">
-        <v>-0.007996327781418483</v>
+        <v>-0.02401505533003127</v>
       </c>
       <c r="F69">
-        <v>0.03914063995646772</v>
+        <v>0.0125940398691742</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.03620507733059106</v>
+        <v>-0.06399129514717063</v>
       </c>
       <c r="C70">
-        <v>-0.01124277029591048</v>
+        <v>-0.02752599731943169</v>
       </c>
       <c r="D70">
-        <v>0.03927957923286442</v>
+        <v>-0.02648333266492826</v>
       </c>
       <c r="E70">
-        <v>-0.01740130792312154</v>
+        <v>0.04806782224717404</v>
       </c>
       <c r="F70">
-        <v>0.06342194714791866</v>
+        <v>0.2910593036341978</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1457735018725083</v>
+        <v>-0.133141726555803</v>
       </c>
       <c r="C71">
-        <v>0.2677121454962663</v>
+        <v>0.02915667872707003</v>
       </c>
       <c r="D71">
-        <v>0.002984384625598453</v>
+        <v>0.2818113629620113</v>
       </c>
       <c r="E71">
-        <v>0.04395451718585065</v>
+        <v>0.09400119248283151</v>
       </c>
       <c r="F71">
-        <v>0.04940846624466173</v>
+        <v>-0.04113119327691413</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1417299476454103</v>
+        <v>-0.1391382234873504</v>
       </c>
       <c r="C72">
-        <v>-0.02485180949131895</v>
+        <v>0.02433585784824662</v>
       </c>
       <c r="D72">
-        <v>0.003090762158305344</v>
+        <v>-0.004913283876603063</v>
       </c>
       <c r="E72">
-        <v>-0.01219866595555437</v>
+        <v>-0.0442154363632464</v>
       </c>
       <c r="F72">
-        <v>0.04547413714649823</v>
+        <v>-0.02218659308885311</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2143276849862052</v>
+        <v>-0.2052308913436831</v>
       </c>
       <c r="C73">
-        <v>-0.01779995420979474</v>
+        <v>0.0116300063857338</v>
       </c>
       <c r="D73">
-        <v>0.1257894051001117</v>
+        <v>-0.0146380458595933</v>
       </c>
       <c r="E73">
-        <v>-0.1447124062138244</v>
+        <v>-0.06184310945278362</v>
       </c>
       <c r="F73">
-        <v>0.05575538838035985</v>
+        <v>-0.0318285443442485</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1144789923949878</v>
+        <v>-0.09419746642016275</v>
       </c>
       <c r="C74">
-        <v>-0.09415146395899601</v>
+        <v>0.01220591953719416</v>
       </c>
       <c r="D74">
-        <v>0.006707558283618508</v>
+        <v>-0.02279816794252823</v>
       </c>
       <c r="E74">
-        <v>-0.03140855816936079</v>
+        <v>-0.04858853984719727</v>
       </c>
       <c r="F74">
-        <v>0.08509810026720042</v>
+        <v>-0.04401294819246115</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1026724368503439</v>
+        <v>-0.1299228234993246</v>
       </c>
       <c r="C75">
-        <v>-0.06852125620584185</v>
+        <v>0.02641556932330602</v>
       </c>
       <c r="D75">
-        <v>0.006933272218498716</v>
+        <v>-0.03358419521156827</v>
       </c>
       <c r="E75">
-        <v>-0.02700423337907406</v>
+        <v>-0.05974901438372754</v>
       </c>
       <c r="F75">
-        <v>-0.01337430530797362</v>
+        <v>-0.01456957807029006</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.03545350728482062</v>
+        <v>-0.005091313825675089</v>
       </c>
       <c r="C76">
-        <v>-0.003471464163303788</v>
+        <v>0.00118997677663626</v>
       </c>
       <c r="D76">
-        <v>0.009682621154907754</v>
+        <v>0.001126180431933617</v>
       </c>
       <c r="E76">
-        <v>-0.03156282572119073</v>
+        <v>-0.002891932468101156</v>
       </c>
       <c r="F76">
-        <v>-0.00533546901064049</v>
+        <v>-0.004341297206069883</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06771770464394566</v>
+        <v>-0.07937962736410327</v>
       </c>
       <c r="C77">
-        <v>-0.04331199453287493</v>
+        <v>0.01059325825209422</v>
       </c>
       <c r="D77">
-        <v>0.03461228372158757</v>
+        <v>-0.1106573671643819</v>
       </c>
       <c r="E77">
-        <v>-0.04110268755475707</v>
+        <v>-0.03703119764884912</v>
       </c>
       <c r="F77">
-        <v>-0.01364040380849847</v>
+        <v>-0.03218267687610225</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1367304151384356</v>
+        <v>-0.1064989412703491</v>
       </c>
       <c r="C78">
-        <v>-0.1358344716658399</v>
+        <v>0.0421342682323498</v>
       </c>
       <c r="D78">
-        <v>-0.1759902784737079</v>
+        <v>-0.1194721938838074</v>
       </c>
       <c r="E78">
-        <v>0.0605538976903064</v>
+        <v>-0.0860116571714345</v>
       </c>
       <c r="F78">
-        <v>-0.8209794589748899</v>
+        <v>-0.07567442202420964</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1335823665527302</v>
+        <v>-0.16460148338313</v>
       </c>
       <c r="C79">
-        <v>-0.06888262119424811</v>
+        <v>0.02029033233891778</v>
       </c>
       <c r="D79">
-        <v>-0.002443173856572855</v>
+        <v>-0.01913662957451252</v>
       </c>
       <c r="E79">
-        <v>-0.05741244158274721</v>
+        <v>-0.04826868838524288</v>
       </c>
       <c r="F79">
-        <v>0.0436764895620744</v>
+        <v>-0.008342254396529495</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07177452791100523</v>
+        <v>-0.08023441282081978</v>
       </c>
       <c r="C80">
-        <v>-0.05322399233444491</v>
+        <v>-0.000314288267720368</v>
       </c>
       <c r="D80">
-        <v>0.07207378702551367</v>
+        <v>-0.05786872441830789</v>
       </c>
       <c r="E80">
-        <v>-0.002191902424095821</v>
+        <v>-0.03400521518734117</v>
       </c>
       <c r="F80">
-        <v>0.04196687949801404</v>
+        <v>0.01621531860674447</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1344389871693331</v>
+        <v>-0.1233616806269467</v>
       </c>
       <c r="C81">
-        <v>-0.08856914463293747</v>
+        <v>0.03045999902570464</v>
       </c>
       <c r="D81">
-        <v>0.003160067323767415</v>
+        <v>-0.01846167931426628</v>
       </c>
       <c r="E81">
-        <v>-0.0514105954928813</v>
+        <v>-0.05901105324536141</v>
       </c>
       <c r="F81">
-        <v>0.0124238482504122</v>
+        <v>-0.00529744430992528</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1439026226314846</v>
+        <v>-0.1637866434022094</v>
       </c>
       <c r="C82">
-        <v>-0.05882272759445427</v>
+        <v>0.02127196545625669</v>
       </c>
       <c r="D82">
-        <v>0.01052439564365993</v>
+        <v>-0.01565779854128209</v>
       </c>
       <c r="E82">
-        <v>-0.0394653305652604</v>
+        <v>-0.03344646976645348</v>
       </c>
       <c r="F82">
-        <v>0.06703437579342571</v>
+        <v>-0.06304914671242096</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.09042179101531542</v>
+        <v>-0.06412388296010686</v>
       </c>
       <c r="C83">
-        <v>-0.1583977026662232</v>
+        <v>0.003697844987064438</v>
       </c>
       <c r="D83">
-        <v>0.01647252429150473</v>
+        <v>-0.04910445489648484</v>
       </c>
       <c r="E83">
-        <v>-0.01085236416577359</v>
+        <v>-0.00525996879037723</v>
       </c>
       <c r="F83">
-        <v>0.02104377671283772</v>
+        <v>0.04198471825051713</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05203608360528732</v>
+        <v>-0.05965933729076197</v>
       </c>
       <c r="C84">
-        <v>0.1132133507879702</v>
+        <v>0.0114155211781975</v>
       </c>
       <c r="D84">
-        <v>0.0480598575389175</v>
+        <v>-0.0615598856312756</v>
       </c>
       <c r="E84">
-        <v>0.01456494967185488</v>
+        <v>0.0003832782403443721</v>
       </c>
       <c r="F84">
-        <v>-0.1798935643643595</v>
+        <v>-0.01257576847635637</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1200541031797748</v>
+        <v>-0.1385750622739576</v>
       </c>
       <c r="C85">
-        <v>-0.04873213772896869</v>
+        <v>0.02582595152753675</v>
       </c>
       <c r="D85">
-        <v>0.01028435366285754</v>
+        <v>-0.01450450833145143</v>
       </c>
       <c r="E85">
-        <v>-0.06995682358377527</v>
+        <v>-0.04031784177757745</v>
       </c>
       <c r="F85">
-        <v>0.04117472156036597</v>
+        <v>-0.04542090553038085</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09010767605814073</v>
+        <v>-0.09838182983902714</v>
       </c>
       <c r="C86">
-        <v>-0.01078984993414622</v>
+        <v>-0.007292918701850871</v>
       </c>
       <c r="D86">
-        <v>-0.003111079542979071</v>
+        <v>-0.02319000474051617</v>
       </c>
       <c r="E86">
-        <v>-0.1720852198351976</v>
+        <v>-0.1465639264066818</v>
       </c>
       <c r="F86">
-        <v>-0.2766507806028294</v>
+        <v>0.8597103266413196</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1219769008933629</v>
+        <v>-0.0987058505051229</v>
       </c>
       <c r="C87">
-        <v>-0.1257624103365916</v>
+        <v>0.02530347684426509</v>
       </c>
       <c r="D87">
-        <v>-9.757666002707688e-06</v>
+        <v>-0.0761846715849466</v>
       </c>
       <c r="E87">
-        <v>-0.07438815060628799</v>
+        <v>0.05224435122266092</v>
       </c>
       <c r="F87">
-        <v>-0.02921637855403777</v>
+        <v>-0.07723126503088025</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05042745269695739</v>
+        <v>-0.06187239943004712</v>
       </c>
       <c r="C88">
-        <v>-0.04974546808817606</v>
+        <v>0.003227342244174302</v>
       </c>
       <c r="D88">
-        <v>0.04766253876879587</v>
+        <v>-0.05344414719475291</v>
       </c>
       <c r="E88">
-        <v>-0.02695377313744056</v>
+        <v>-0.02734365750408311</v>
       </c>
       <c r="F88">
-        <v>0.04948994601168284</v>
+        <v>-0.009186565870795357</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2041372164413512</v>
+        <v>-0.1339762460752886</v>
       </c>
       <c r="C89">
-        <v>0.3623973945067167</v>
+        <v>0.007358263972206416</v>
       </c>
       <c r="D89">
-        <v>-0.05789302294199206</v>
+        <v>0.2611466048849503</v>
       </c>
       <c r="E89">
-        <v>0.03502421163004629</v>
+        <v>0.09099996644169459</v>
       </c>
       <c r="F89">
-        <v>-0.01775863853670161</v>
+        <v>-0.02334330421108358</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1569172511496016</v>
+        <v>-0.1443227754324345</v>
       </c>
       <c r="C90">
-        <v>0.2561756284624604</v>
+        <v>0.02460837423955703</v>
       </c>
       <c r="D90">
-        <v>0.00614574793687241</v>
+        <v>0.269470452695788</v>
       </c>
       <c r="E90">
-        <v>0.03190667718128877</v>
+        <v>0.1072243731760281</v>
       </c>
       <c r="F90">
-        <v>0.03868214303047714</v>
+        <v>-0.02414514335484111</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07959717735259554</v>
+        <v>-0.1186509417101085</v>
       </c>
       <c r="C91">
-        <v>-0.05242848585314092</v>
+        <v>0.01663791013794278</v>
       </c>
       <c r="D91">
-        <v>0.008778601933203971</v>
+        <v>0.006363970693310322</v>
       </c>
       <c r="E91">
-        <v>-0.0543878770988365</v>
+        <v>-0.05698372013868028</v>
       </c>
       <c r="F91">
-        <v>0.01482756342388861</v>
+        <v>0.01842043907368502</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1759797881308417</v>
+        <v>-0.1476769578211087</v>
       </c>
       <c r="C92">
-        <v>0.2990101091103049</v>
+        <v>0.01645315177368044</v>
       </c>
       <c r="D92">
-        <v>-0.03403487847163737</v>
+        <v>0.300481801214475</v>
       </c>
       <c r="E92">
-        <v>0.04986368969611973</v>
+        <v>0.1026901325674455</v>
       </c>
       <c r="F92">
-        <v>-0.008959406370286934</v>
+        <v>-0.02063620486650118</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1612326548051434</v>
+        <v>-0.1486670063661806</v>
       </c>
       <c r="C93">
-        <v>0.3156897074291672</v>
+        <v>0.02112431793423861</v>
       </c>
       <c r="D93">
-        <v>0.03836239554485082</v>
+        <v>0.2716979431752862</v>
       </c>
       <c r="E93">
-        <v>0.04168080718559446</v>
+        <v>0.07313909544640577</v>
       </c>
       <c r="F93">
-        <v>0.0262548202533898</v>
+        <v>-0.01809410366549092</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.13386635647517</v>
+        <v>-0.1335590487199778</v>
       </c>
       <c r="C94">
-        <v>-0.0726909581109266</v>
+        <v>0.02392603654887251</v>
       </c>
       <c r="D94">
-        <v>-0.007040809774653457</v>
+        <v>-0.04595526920345484</v>
       </c>
       <c r="E94">
-        <v>-0.04176971962374311</v>
+        <v>-0.06077226544776278</v>
       </c>
       <c r="F94">
-        <v>0.02012598322212108</v>
+        <v>-0.0333149614356211</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1144161383321743</v>
+        <v>-0.1257395933558889</v>
       </c>
       <c r="C95">
-        <v>-0.04787949692740559</v>
+        <v>0.005665499523440211</v>
       </c>
       <c r="D95">
-        <v>-0.01088722460568826</v>
+        <v>-0.09166926691147108</v>
       </c>
       <c r="E95">
-        <v>-0.03094127251717262</v>
+        <v>-0.04483518880348478</v>
       </c>
       <c r="F95">
-        <v>-0.09017280225644879</v>
+        <v>0.01117013423734789</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.006869596799663273</v>
+        <v>-0.09848248488043777</v>
       </c>
       <c r="C96">
-        <v>-0.008973647071537852</v>
+        <v>-0.9889587602355128</v>
       </c>
       <c r="D96">
-        <v>0.0009460987000885617</v>
+        <v>0.02533495378177664</v>
       </c>
       <c r="E96">
-        <v>-0.002058262430571504</v>
+        <v>-0.05842773759750601</v>
       </c>
       <c r="F96">
-        <v>-0.02277698099507575</v>
+        <v>-0.0485136054810866</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1724411419578163</v>
+        <v>-0.1871389488561101</v>
       </c>
       <c r="C97">
-        <v>-0.2079440385228405</v>
+        <v>-0.01174497041753391</v>
       </c>
       <c r="D97">
-        <v>-0.1251528090161358</v>
+        <v>0.006215194058059687</v>
       </c>
       <c r="E97">
-        <v>0.8807615691760566</v>
+        <v>-0.01826393387985296</v>
       </c>
       <c r="F97">
-        <v>0.05325808951698346</v>
+        <v>0.1739564123000196</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2347808549406561</v>
+        <v>-0.2044568614412268</v>
       </c>
       <c r="C98">
-        <v>-0.0570748110182398</v>
+        <v>0.006984125649429509</v>
       </c>
       <c r="D98">
-        <v>-0.08387426765234203</v>
+        <v>-0.01259613174884862</v>
       </c>
       <c r="E98">
-        <v>-0.02619123069059437</v>
+        <v>0.0946096468079401</v>
       </c>
       <c r="F98">
-        <v>-0.07178021764724404</v>
+        <v>0.1244062273247811</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.0537202203659919</v>
+        <v>-0.0569032078973417</v>
       </c>
       <c r="C99">
-        <v>-0.01929718695516864</v>
+        <v>-0.003593404752231427</v>
       </c>
       <c r="D99">
-        <v>0.002272093436113681</v>
+        <v>-0.03548838214367821</v>
       </c>
       <c r="E99">
-        <v>-0.02175875958115673</v>
+        <v>-0.02686305942197958</v>
       </c>
       <c r="F99">
-        <v>0.002893461328076271</v>
+        <v>-0.002378439047803417</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.0009619526564797172</v>
+        <v>-0.1241989453560487</v>
       </c>
       <c r="C100">
-        <v>-0.008829612865137672</v>
+        <v>-0.04902811910620744</v>
       </c>
       <c r="D100">
-        <v>-0.001631668746000971</v>
+        <v>-0.3402069114167741</v>
       </c>
       <c r="E100">
-        <v>0.1289724206797445</v>
+        <v>0.8986173111845297</v>
       </c>
       <c r="F100">
-        <v>0.03539524263383038</v>
+        <v>0.06756292849687767</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03195432528515819</v>
+        <v>-0.02716861366529467</v>
       </c>
       <c r="C101">
-        <v>-0.02753102070817905</v>
+        <v>0.008957133319336504</v>
       </c>
       <c r="D101">
-        <v>0.02651328008786366</v>
+        <v>-0.03139408358162962</v>
       </c>
       <c r="E101">
-        <v>-0.03139513179117951</v>
+        <v>-0.01207788482356066</v>
       </c>
       <c r="F101">
-        <v>0.01816529144676517</v>
+        <v>0.01308346976600428</v>
       </c>
     </row>
     <row r="102" spans="1:6">
